--- a/assets/State Obesity Rates.xlsx
+++ b/assets/State Obesity Rates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Akshath\Documents\Programming Projects\FitnessForAll\assets\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{FDD672D9-E9A7-463B-937D-2FCB25EF4C32}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="12_ncr:500000_{C1EEB7F1-8D28-4DF8-9718-ECB620613C9F}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="25600" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="104" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="109" uniqueCount="109">
   <si>
     <t>Alabama</t>
   </si>
@@ -337,6 +337,21 @@
   </si>
   <si>
     <t>DC</t>
+  </si>
+  <si>
+    <t>y2016</t>
+  </si>
+  <si>
+    <t>y2015</t>
+  </si>
+  <si>
+    <t>y2014</t>
+  </si>
+  <si>
+    <t>y2013</t>
+  </si>
+  <si>
+    <t>y2012</t>
   </si>
 </sst>
 </file>
@@ -710,14 +725,14 @@
   <dimension ref="A1:G53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.35"/>
   <cols>
     <col min="1" max="1" width="18" style="1" customWidth="1"/>
     <col min="2" max="2" width="15.5859375" customWidth="1"/>
-    <col min="3" max="3" width="5.76171875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="8.703125" customWidth="1"/>
     <col min="8" max="8" width="8.9375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -728,20 +743,20 @@
       <c r="B1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" s="3">
-        <v>2016</v>
-      </c>
-      <c r="D1" s="4">
-        <v>2015</v>
-      </c>
-      <c r="E1" s="4">
-        <v>2014</v>
-      </c>
-      <c r="F1" s="4">
-        <v>2013</v>
-      </c>
-      <c r="G1">
-        <v>2012</v>
+      <c r="C1" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D1" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="E1" s="4" t="s">
+        <v>106</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="G1" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="2" spans="1:7">
